--- a/src/test/resources/data/input.xlsx
+++ b/src/test/resources/data/input.xlsx
@@ -7,18 +7,55 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedTitle</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>Fail Msg</t>
+  </si>
+  <si>
+    <t>Home Page Not Displayed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -34,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +79,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +396,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/data/input.xlsx
+++ b/src/test/resources/data/input.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Home Page Not Displayed</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -398,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,12 +451,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
